--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nr</t>
   </si>
@@ -44,34 +44,10 @@
     <t xml:space="preserve">skala1</t>
   </si>
   <si>
-    <t xml:space="preserve">pv_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_5</t>
+    <t xml:space="preserve">pv_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_pooled</t>
   </si>
 </sst>
 </file>
@@ -491,95 +467,7 @@
         <v>11</v>
       </c>
       <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -372,10 +372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -372,10 +372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dat" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Nr</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSCH</t>
   </si>
   <si>
     <t xml:space="preserve">varMetrisch</t>
@@ -422,9 +425,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4"/>
       <c r="D4"/>
     </row>
     <row r="5">
@@ -446,7 +447,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
       <c r="D6"/>
     </row>
     <row r="7">
@@ -467,7 +470,17 @@
         <v>11</v>
       </c>
       <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>

--- a/inst/extdata/example_register.xlsx
+++ b/inst/extdata/example_register.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Nr</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">pv_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_pooled</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_pooled</t>
@@ -484,6 +487,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
